--- a/3_회계장부_0630.xlsx
+++ b/3_회계장부_0630.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734DC36A-5BCB-724E-A6E4-35D818CE4819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B531FC-E99B-4C48-A0CF-3C25AE257503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6080" yWindow="500" windowWidth="25600" windowHeight="27060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2960" yWindow="500" windowWidth="25600" windowHeight="27060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="임베디드" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="148">
   <si>
     <t>사용단체</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -434,10 +434,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>사유서 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>사유서 6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -591,6 +587,18 @@
   </si>
   <si>
     <t>사유서 12</t>
+  </si>
+  <si>
+    <t>사유서 5_1</t>
+  </si>
+  <si>
+    <t>사유서 5_2</t>
+  </si>
+  <si>
+    <t>사유서 5_3, 5_4</t>
+  </si>
+  <si>
+    <t>사유서 5_5</t>
   </si>
 </sst>
 </file>
@@ -1104,8 +1112,8 @@
   </sheetPr>
   <dimension ref="A1:T136"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P45" sqref="P45"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N58" sqref="N58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1913,7 +1921,7 @@
         <v>92</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J27" s="8">
         <v>1500000</v>
@@ -1923,13 +1931,13 @@
         <v>1686033</v>
       </c>
       <c r="L27" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M27" s="19" t="s">
         <v>99</v>
       </c>
       <c r="O27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
@@ -1958,7 +1966,7 @@
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
       <c r="O28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
@@ -2011,7 +2019,7 @@
       </c>
       <c r="L30" s="5"/>
       <c r="M30" s="5" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
@@ -2039,7 +2047,7 @@
       </c>
       <c r="L31" s="5"/>
       <c r="M31" s="5" t="s">
-        <v>100</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
@@ -2082,7 +2090,7 @@
         <v>59</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J33" s="8">
         <v>30000</v>
@@ -2093,7 +2101,7 @@
       </c>
       <c r="L33" s="5"/>
       <c r="M33" s="5" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
@@ -2279,7 +2287,7 @@
       </c>
       <c r="L40" s="5"/>
       <c r="M40" s="17" t="s">
-        <v>100</v>
+        <v>147</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
@@ -2361,7 +2369,7 @@
         <v>87</v>
       </c>
       <c r="M43" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
@@ -2473,7 +2481,7 @@
         <v>89</v>
       </c>
       <c r="M47" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
@@ -2527,7 +2535,7 @@
       </c>
       <c r="L49" s="5"/>
       <c r="M49" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.2">
@@ -2609,7 +2617,7 @@
         <v>79</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E52" s="14">
         <v>1350000</v>
@@ -2624,10 +2632,10 @@
         <v>2350887</v>
       </c>
       <c r="L52" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M52" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
@@ -2661,10 +2669,10 @@
         <v>2250047</v>
       </c>
       <c r="L53" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M53" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
@@ -2698,10 +2706,10 @@
         <v>2244547</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M54" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
@@ -2753,7 +2761,7 @@
         <v>16</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E56" s="14">
         <v>10456</v>
@@ -2790,7 +2798,7 @@
         <v>12</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J57" s="8">
         <v>39200</v>
@@ -2800,7 +2808,7 @@
         <v>2215914</v>
       </c>
       <c r="L57" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M57" s="5"/>
       <c r="N57" s="1"/>
@@ -2820,7 +2828,7 @@
         <v>48</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E58" s="14">
         <v>86000</v>
@@ -2858,7 +2866,7 @@
         <v>12</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J59" s="8">
         <v>385400</v>
@@ -2868,10 +2876,10 @@
         <v>1916514</v>
       </c>
       <c r="L59" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M59" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
@@ -2892,10 +2900,10 @@
       </c>
       <c r="G60" s="5"/>
       <c r="H60" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J60" s="8">
         <v>4500</v>
@@ -2905,7 +2913,7 @@
         <v>1912014</v>
       </c>
       <c r="L60" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M60" s="5"/>
       <c r="N60" s="1"/>
@@ -2963,7 +2971,7 @@
         <v>12</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J62" s="8">
         <v>65400</v>
@@ -2973,10 +2981,10 @@
         <v>1846797</v>
       </c>
       <c r="L62" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M62" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
@@ -3000,7 +3008,7 @@
         <v>12</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J63" s="8">
         <v>72900</v>
@@ -3010,10 +3018,10 @@
         <v>1773897</v>
       </c>
       <c r="L63" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M63" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
@@ -3037,7 +3045,7 @@
         <v>12</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J64" s="8">
         <v>40600</v>
@@ -3047,7 +3055,7 @@
         <v>1733297</v>
       </c>
       <c r="L64" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M64" s="5"/>
       <c r="N64" s="1"/>
@@ -3072,7 +3080,7 @@
         <v>12</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J65" s="8">
         <v>81650</v>
@@ -3082,7 +3090,7 @@
         <v>1651647</v>
       </c>
       <c r="L65" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M65" s="5"/>
       <c r="N65" s="1"/>
@@ -3104,10 +3112,10 @@
       </c>
       <c r="G66" s="5"/>
       <c r="H66" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="I66" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="I66" s="5" t="s">
-        <v>122</v>
       </c>
       <c r="J66" s="8">
         <v>14800</v>
@@ -3117,7 +3125,7 @@
         <v>1636847</v>
       </c>
       <c r="L66" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M66" s="5"/>
       <c r="N66" s="1"/>
@@ -3137,7 +3145,7 @@
         <v>79</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E67" s="14">
         <v>65400</v>
@@ -3175,7 +3183,7 @@
         <v>12</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J68" s="8">
         <v>36300</v>
@@ -3185,10 +3193,10 @@
         <v>1665947</v>
       </c>
       <c r="L68" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M68" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
@@ -3207,7 +3215,7 @@
         <v>16</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E69" s="14">
         <v>88</v>
@@ -3270,10 +3278,10 @@
       </c>
       <c r="B71" s="5"/>
       <c r="C71" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D71" s="5" t="s">
         <v>127</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>128</v>
       </c>
       <c r="E71" s="14">
         <v>550</v>
@@ -3302,10 +3310,10 @@
       </c>
       <c r="B72" s="5"/>
       <c r="C72" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D72" s="5" t="s">
         <v>129</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>130</v>
       </c>
       <c r="E72" s="14">
         <v>117</v>

--- a/3_회계장부_0630.xlsx
+++ b/3_회계장부_0630.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B531FC-E99B-4C48-A0CF-3C25AE257503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760A55D9-77FF-D441-9E78-0442AFC64E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2960" yWindow="500" windowWidth="25600" windowHeight="27060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20900" yWindow="500" windowWidth="25600" windowHeight="27060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="임베디드" sheetId="1" r:id="rId1"/>
@@ -1113,7 +1113,7 @@
   <dimension ref="A1:T136"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N58" sqref="N58"/>
+      <selection activeCell="P54" sqref="P54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/3_회계장부_0630.xlsx
+++ b/3_회계장부_0630.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760A55D9-77FF-D441-9E78-0442AFC64E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3DE5D68-9C9B-104B-ABD6-9529534D2680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20900" yWindow="500" windowWidth="25600" windowHeight="27060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -568,9 +568,6 @@
     <t>&lt;&lt; 결제성 지출이 아니라, 환불 받을 예약금 출금이라</t>
   </si>
   <si>
-    <t>일련번호는 실제 지출일로 작성함</t>
-  </si>
-  <si>
     <t>사유서 7</t>
   </si>
   <si>
@@ -599,6 +596,9 @@
   </si>
   <si>
     <t>사유서 5_5</t>
+  </si>
+  <si>
+    <t>사유서 일련번호는 실제 지출일로 작성함</t>
   </si>
 </sst>
 </file>
@@ -1112,8 +1112,8 @@
   </sheetPr>
   <dimension ref="A1:T136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P54" sqref="P54"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P61" sqref="P61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1966,7 +1966,7 @@
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
       <c r="O28" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
@@ -2019,7 +2019,7 @@
       </c>
       <c r="L30" s="5"/>
       <c r="M30" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
@@ -2047,7 +2047,7 @@
       </c>
       <c r="L31" s="5"/>
       <c r="M31" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
@@ -2101,7 +2101,7 @@
       </c>
       <c r="L33" s="5"/>
       <c r="M33" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
@@ -2287,7 +2287,7 @@
       </c>
       <c r="L40" s="5"/>
       <c r="M40" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
@@ -2481,7 +2481,7 @@
         <v>89</v>
       </c>
       <c r="M47" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
@@ -2535,7 +2535,7 @@
       </c>
       <c r="L49" s="5"/>
       <c r="M49" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.2">
@@ -2672,7 +2672,7 @@
         <v>132</v>
       </c>
       <c r="M53" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
@@ -2709,7 +2709,7 @@
         <v>132</v>
       </c>
       <c r="M54" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
@@ -2879,7 +2879,7 @@
         <v>106</v>
       </c>
       <c r="M59" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
@@ -3021,7 +3021,7 @@
         <v>113</v>
       </c>
       <c r="M63" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
@@ -3196,7 +3196,7 @@
         <v>125</v>
       </c>
       <c r="M68" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
